--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_T45.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_T45.xlsx
@@ -28,7 +28,7 @@
     <t>2020-03-19_diff</t>
   </si>
   <si>
-    <t>2020-07-01_diff</t>
+    <t>2020-06-29_diff</t>
   </si>
   <si>
     <t>2020-09-22_diff</t>
@@ -476,13 +476,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.2822615869999998</v>
+        <v>-5.229973662</v>
       </c>
       <c r="C3">
-        <v>2.639819019</v>
-      </c>
-      <c r="D3">
-        <v>-10.042179929</v>
+        <v>8.286826071</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_T45.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched/ifoCAst_errors_filtered_T45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Qminus1</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2025-06-12_diff</t>
+  </si>
+  <si>
+    <t>2025-09-04_diff</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,7 +748,7 @@
         <v>0.532749825</v>
       </c>
       <c r="D22">
-        <v>0.224211960688786</v>
+        <v>0.224211961</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -756,7 +759,21 @@
         <v>0.749696619</v>
       </c>
       <c r="C23">
-        <v>-0.1819058197307236</v>
+        <v>-0.18190582</v>
+      </c>
+      <c r="D23">
+        <v>0.6740699019999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>-0.431278794</v>
+      </c>
+      <c r="C24">
+        <v>0.118688665</v>
       </c>
     </row>
   </sheetData>
